--- a/pj_creator_2/res/xlsx/personality_trope_data.xlsx
+++ b/pj_creator_2/res/xlsx/personality_trope_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="4740"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>keys</t>
   </si>
@@ -113,13 +113,16 @@
     <t>force</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>leader</t>
   </si>
   <si>
     <t>tough character</t>
   </si>
   <si>
-    <t>default</t>
+    <t>friendly</t>
   </si>
   <si>
     <t>evil villain</t>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>popular evil</t>
+  </si>
+  <si>
+    <t>casanova</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.3333333333333" defaultRowHeight="14.4"/>
@@ -1177,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1201,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -1222,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>0</v>
@@ -1246,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
@@ -1260,43 +1266,43 @@
         <v>29</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>-1</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>-1</v>
+      <c r="H3" s="1">
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -1310,20 +1316,20 @@
       <c r="R3" s="1">
         <v>2</v>
       </c>
-      <c r="S3">
-        <v>-1</v>
+      <c r="S3" s="1">
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>-1</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1331,14 +1337,14 @@
       <c r="Y3" s="1">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>-1</v>
+      <c r="Z3" s="1">
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1346,37 +1352,37 @@
         <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
+      <c r="D4">
+        <v>-1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
+      <c r="H4">
+        <v>-1</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
+      <c r="L4">
+        <v>-1</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1385,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -1394,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>-1</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -1405,11 +1411,11 @@
       <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
@@ -1417,99 +1423,99 @@
       <c r="Y4" s="1">
         <v>0</v>
       </c>
-      <c r="Z4" s="1">
-        <v>0</v>
+      <c r="Z4">
+        <v>-1</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" customFormat="1" spans="1:28">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>-1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>-1</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1518,67 +1524,67 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1590,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1603,115 +1609,115 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
       </c>
       <c r="S7">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:28">
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
-        <v>-1</v>
+      <c r="B8" s="1">
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1722,41 +1728,41 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
+      <c r="M8">
+        <v>-1</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
       </c>
-      <c r="U8">
-        <v>-1</v>
+      <c r="U8" s="1">
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1765,84 +1771,84 @@
         <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:28">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
+      <c r="B9">
+        <v>-1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-      <c r="M9">
-        <v>-1</v>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="1">
-        <v>1</v>
+      <c r="R9">
+        <v>-1</v>
       </c>
       <c r="S9" s="1">
         <v>1</v>
       </c>
-      <c r="T9">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>-1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>1</v>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1854,6 +1860,178 @@
         <v>1</v>
       </c>
       <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:28">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
         <v>0</v>
       </c>
     </row>

--- a/pj_creator_2/res/xlsx/personality_trope_data.xlsx
+++ b/pj_creator_2/res/xlsx/personality_trope_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>keys</t>
   </si>
@@ -35,9 +35,6 @@
     <t>extroversion</t>
   </si>
   <si>
-    <t>positivity</t>
-  </si>
-  <si>
     <t>serenity</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>knowledge</t>
   </si>
   <si>
-    <t>resistance</t>
-  </si>
-  <si>
     <t>loyalty</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>intimacy</t>
   </si>
   <si>
-    <t>indulgence</t>
-  </si>
-  <si>
     <t>adaptability</t>
   </si>
   <si>
@@ -141,6 +132,12 @@
   </si>
   <si>
     <t>casanova</t>
+  </si>
+  <si>
+    <t>childrens character</t>
+  </si>
+  <si>
+    <t>fool</t>
   </si>
 </sst>
 </file>
@@ -1076,20 +1073,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.3333333333333" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
-    <col min="2" max="28" width="11.2222222222222" customWidth="1"/>
-    <col min="29" max="16384" width="23.3333333333333" customWidth="1"/>
+    <col min="2" max="25" width="11.2222222222222" customWidth="1"/>
+    <col min="27" max="16382" width="23.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1165,873 +1162,1159 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" t="s">
+    <row r="5" customFormat="1" spans="1:25">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
-      <c r="A3" t="s">
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" t="s">
+    <row r="7" customFormat="1" spans="1:25">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>-1</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>-1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+      <c r="T7">
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:28">
-      <c r="A5" t="s">
+    <row r="8" customFormat="1" spans="1:25">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="A6" t="s">
+    <row r="9" customFormat="1" spans="1:25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>-1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>-1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:28">
-      <c r="A7" t="s">
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-1</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:28">
-      <c r="A8" t="s">
+    <row r="11" customFormat="1" spans="1:25">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>1</v>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:28">
-      <c r="A9" t="s">
+    <row r="12" customFormat="1" spans="1:25">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>-1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
-      <c r="A10" t="s">
+    <row r="13" customFormat="1" spans="1:25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:25">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>-1</v>
-      </c>
-      <c r="W10" s="1">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:28">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="1">
+    <row r="15" customFormat="1" spans="1:25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
         <v>0</v>
       </c>
     </row>
